--- a/lci-Salar-del-Hombre-Muerto-North.xlsx
+++ b/lci-Salar-del-Hombre-Muerto-North.xlsx
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>0.01483253082313423</v>
+        <v>-0.007317182565765822</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.02971318189354889</v>
+        <v>0.0004456977284032337</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
